--- a/EC test cases.xlsx
+++ b/EC test cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2d8a\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1877" documentId="8_{407B9220-2EB7-4282-BFB7-AB877281F0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41319425-B7B5-4EB3-AD55-A878764661BC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5804DD-9A6D-4875-B320-9FC0387C3DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="578">
   <si>
     <t>TCID</t>
   </si>
@@ -2574,12 +2572,57 @@
 UC          UC
 UC1        UC1</t>
   </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Jack's review</t>
+  </si>
+  <si>
+    <t>OK, but this testing requires a specific account, since most UAT accounts have multiple providers bound</t>
+  </si>
+  <si>
+    <t>Same as above</t>
+  </si>
+  <si>
+    <t>Please confirm the search box provides searching function for provider instead of company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please confirm if it's feasible </t>
+  </si>
+  <si>
+    <t>- According to 7.1.2.2, there are two linkages: 1. doctor code&lt;-&gt;insured cards 2. insurced company&lt;-&gt;insured card linkage, please confirm and revise pre-condition.
+- For test step 1, click on provider name should display available contract instead of insured company?</t>
+  </si>
+  <si>
+    <t>Same as above
+Linkage logic also affects what companies are to be displayed, pls include this in expected result</t>
+  </si>
+  <si>
+    <t>&lt;-</t>
+  </si>
+  <si>
+    <t>Please confirm the logic is not limiting to 2 companies, i.e. multiple companies</t>
+  </si>
+  <si>
+    <t>- According to 7.1.2.2, there are two linkages: 1. doctor code&lt;-&gt;insured cards 2. insurced company&lt;-&gt;insured card linkage, hence what companies available depends on what cards the doctor linked to. Please confirm this setup is feasible.</t>
+  </si>
+  <si>
+    <t>Please confirm if it's feasible to not linked to any companies at all</t>
+  </si>
+  <si>
+    <t>Please align test steps and expected behavior</t>
+  </si>
+  <si>
+    <t>For test step 2, please confirm should be "Eligibility Check" instead of "Pre-Approval"
+Same for similar test cases below</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2785,7 +2828,7 @@
       <name val="等线"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2993,6 +3036,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3293,7 +3342,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -3423,50 +3472,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3784,7 +3841,7 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -3797,7 +3854,7 @@
     <col min="15" max="18" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3859,7 +3916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3912,7 +3969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
         <v>35</v>
       </c>
@@ -3923,7 +3980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>27</v>
       </c>
@@ -3931,12 +3988,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>40</v>
       </c>
@@ -3951,14 +4008,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D63B151-C6BD-4285-A26D-A6C19BF44CBA}">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="50.28515625" style="5" customWidth="1"/>
@@ -3979,9 +4036,10 @@
     <col min="18" max="18" width="42.5703125" style="5" customWidth="1"/>
     <col min="19" max="19" width="18.42578125" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="215.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4042,8 +4100,11 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="45.75">
+      <c r="X1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4098,8 +4159,11 @@
       <c r="T2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="45.75">
+      <c r="X2" s="53" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4154,8 +4218,11 @@
       <c r="T3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="45.75">
+      <c r="X3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4210,8 +4277,11 @@
       <c r="T4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="45.75">
+      <c r="X4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4266,8 +4336,11 @@
       <c r="T5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="45.75">
+      <c r="X5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4322,8 +4395,11 @@
       <c r="T6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="45.75">
+      <c r="X6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4378,8 +4454,11 @@
       <c r="T7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="45.75">
+      <c r="X7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4434,8 +4513,11 @@
       <c r="T8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="45.75">
+      <c r="X8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4490,8 +4572,11 @@
       <c r="T9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="45.75">
+      <c r="X9" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4546,8 +4631,11 @@
       <c r="T10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="45.75">
+      <c r="X10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4602,8 +4690,11 @@
       <c r="T11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="45.75">
+      <c r="X11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4658,8 +4749,11 @@
       <c r="T12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="45.75">
+      <c r="X12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4714,8 +4808,11 @@
       <c r="T13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="60.75">
+      <c r="X13" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4770,8 +4867,11 @@
       <c r="T14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="45.75">
+      <c r="X14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4826,8 +4926,11 @@
       <c r="T15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="76.5">
+      <c r="X15" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4882,8 +4985,11 @@
       <c r="T16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="45.75">
+      <c r="X16" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4938,8 +5044,11 @@
       <c r="T17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="76.5">
+      <c r="X17" s="11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4994,8 +5103,11 @@
       <c r="T18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="76.5">
+      <c r="X18" s="11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5050,8 +5162,11 @@
       <c r="T19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="76.5">
+      <c r="X19" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5106,8 +5221,11 @@
       <c r="T20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="76.5">
+      <c r="X20" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5162,8 +5280,11 @@
       <c r="T21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="76.5">
+      <c r="X21" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5218,8 +5339,11 @@
       <c r="T22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="76.5">
+      <c r="X22" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5274,8 +5398,11 @@
       <c r="T23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="76.5">
+      <c r="X23" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5330,8 +5457,11 @@
       <c r="T24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="76.5">
+      <c r="X24" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5386,8 +5516,11 @@
       <c r="T25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" s="14" customFormat="1" ht="76.5">
+      <c r="X25" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5444,8 +5577,11 @@
       <c r="T26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="76.5">
+      <c r="X26" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5500,8 +5636,11 @@
       <c r="T27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="76.5">
+      <c r="X27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5556,8 +5695,11 @@
       <c r="T28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="76.5">
+      <c r="X28" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>151</v>
       </c>
@@ -5603,8 +5745,11 @@
       <c r="R29" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="45.75">
+      <c r="X29" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5659,8 +5804,11 @@
       <c r="T30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" ht="45.75">
+      <c r="X30" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5715,8 +5863,11 @@
       <c r="T31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" ht="76.5">
+      <c r="X31" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5771,8 +5922,11 @@
       <c r="T32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" ht="45.75">
+      <c r="X32" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5827,8 +5981,11 @@
       <c r="T33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" ht="76.5">
+      <c r="X33" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5883,8 +6040,11 @@
       <c r="T34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" ht="76.5">
+      <c r="X34" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5939,8 +6099,11 @@
       <c r="T35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" ht="76.5">
+      <c r="X35" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5995,8 +6158,11 @@
       <c r="T36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" s="16" customFormat="1" ht="76.5">
+      <c r="X36" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>35</v>
       </c>
@@ -6051,8 +6217,11 @@
       <c r="T37" s="16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" ht="91.5">
+      <c r="X37" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -6107,8 +6276,11 @@
       <c r="T38" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" ht="60.75">
+      <c r="X38" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -6163,8 +6335,11 @@
       <c r="T39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" ht="60.75">
+      <c r="X39" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -6219,8 +6394,11 @@
       <c r="T40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" ht="91.5">
+      <c r="X40" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -6275,8 +6453,11 @@
       <c r="T41" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" ht="76.5">
+      <c r="X41" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -6331,8 +6512,11 @@
       <c r="T42" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" ht="121.5">
+      <c r="X42" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -6386,6 +6570,9 @@
       </c>
       <c r="T43" t="s">
         <v>34</v>
+      </c>
+      <c r="X43" s="11" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -6395,24 +6582,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4C32E8-8DE2-42EF-B289-26C23F59F4A7}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G3" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.7109375" customWidth="1"/>
     <col min="16" max="16" width="32.85546875" customWidth="1"/>
     <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="33.85546875" customWidth="1"/>
+    <col min="24" max="24" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" ht="45.75">
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -6473,8 +6662,11 @@
       <c r="T1" s="22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="351">
+      <c r="X1" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="345" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -6535,8 +6727,11 @@
       <c r="T2" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="121.5">
+      <c r="X2" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -6598,7 +6793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="366">
+    <row r="4" spans="1:24" ht="375" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -6660,7 +6855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="137.25">
+    <row r="5" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -6722,7 +6917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="409.6">
+    <row r="6" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -6784,7 +6979,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="167.25">
+    <row r="7" spans="1:24" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -6846,7 +7041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="244.5">
+    <row r="8" spans="1:24" ht="240" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -6908,7 +7103,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="244.5">
+    <row r="9" spans="1:24" ht="240" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -6970,7 +7165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="244.5">
+    <row r="10" spans="1:24" ht="240" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -7032,7 +7227,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="244.5">
+    <row r="11" spans="1:24" ht="240" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -7094,7 +7289,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="244.5">
+    <row r="12" spans="1:24" ht="240" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -7156,7 +7351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="244.5">
+    <row r="13" spans="1:24" ht="240" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -7218,7 +7413,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="275.25">
+    <row r="14" spans="1:24" ht="270" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -7280,7 +7475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="275.25">
+    <row r="15" spans="1:24" ht="270" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -7342,7 +7537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="275.25">
+    <row r="16" spans="1:24" ht="270" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -7411,13 +7606,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512ED1AD-5C95-4BFC-ACE3-6DE14297F06B}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" customWidth="1"/>
@@ -7428,9 +7623,10 @@
     <col min="16" max="16" width="38.85546875" customWidth="1"/>
     <col min="17" max="17" width="28.28515625" customWidth="1"/>
     <col min="18" max="18" width="50.42578125" customWidth="1"/>
+    <col min="24" max="24" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45.75">
+    <row r="1" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -7492,7 +7688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="134.25">
+    <row r="2" spans="1:24" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -7537,8 +7733,11 @@
       <c r="T2" s="19" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="148.5">
+      <c r="X2" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="11" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A3" s="48">
         <v>2</v>
       </c>
@@ -7583,8 +7782,11 @@
       <c r="T3" s="48" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="134.25">
+      <c r="X3" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -7629,8 +7831,11 @@
       <c r="T4" s="19" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="134.25">
+      <c r="X4" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -7675,8 +7880,11 @@
       <c r="T5" s="19" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="134.25">
+      <c r="X5" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -7721,8 +7929,11 @@
       <c r="T6" s="19" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="134.25">
+      <c r="X6" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -7767,8 +7978,11 @@
       <c r="T7" s="19" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="134.25">
+      <c r="X7" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -7813,8 +8027,11 @@
       <c r="T8" s="19" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="118.5">
+      <c r="X8" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="114" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -7859,8 +8076,11 @@
       <c r="T9" s="19" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="134.25">
+      <c r="X9" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -7904,6 +8124,9 @@
       </c>
       <c r="T10" s="19" t="s">
         <v>295</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -7913,13 +8136,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECC32FE-89D8-4030-8EA3-D4A509B4AA42}">
-  <dimension ref="A1:U91"/>
+  <dimension ref="A1:Y91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="46" style="5" customWidth="1"/>
@@ -7939,9 +8162,10 @@
     <col min="19" max="19" width="15.140625" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="22.42578125" customWidth="1"/>
+    <col min="25" max="25" width="94.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8002,8 +8226,11 @@
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="60.75">
+      <c r="Y1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -8057,7 +8284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="60.75">
+    <row r="3" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -8113,8 +8340,11 @@
       <c r="U3" s="31" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="45.75">
+      <c r="Y3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -8163,8 +8393,11 @@
       <c r="T4" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" s="11" customFormat="1" ht="45.75">
+      <c r="Y4" s="54" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -8212,8 +8445,11 @@
       <c r="U5" s="11" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="60.75">
+      <c r="Y5" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -8262,8 +8498,11 @@
       <c r="T6" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="45.75">
+      <c r="Y6" s="11" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -8315,8 +8554,11 @@
       <c r="U7" s="27" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="45.75">
+      <c r="Y7" s="11" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -8364,8 +8606,11 @@
       <c r="U8" s="11" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="76.5">
+      <c r="Y8" s="11" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -8413,8 +8658,11 @@
       <c r="U9" s="14" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="76.5">
+      <c r="Y9" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -8459,8 +8707,11 @@
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" s="11" customFormat="1" ht="60.75">
+      <c r="Y10" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -8508,8 +8759,11 @@
       <c r="U11" s="11" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="76.5">
+      <c r="Y11" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -8555,8 +8809,11 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="14"/>
-    </row>
-    <row r="13" spans="1:21" ht="76.5">
+      <c r="Y12" s="55" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -8604,8 +8861,11 @@
       <c r="U13" s="32" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="91.5">
+      <c r="Y13" s="56" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -8653,8 +8913,11 @@
       <c r="U14" s="14" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="60.75">
+      <c r="Y14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -8702,8 +8965,11 @@
       <c r="U15" s="14" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="45.75">
+      <c r="Y15" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -8748,8 +9014,11 @@
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" ht="60.75">
+      <c r="Y16" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -8797,8 +9066,11 @@
       <c r="U17" s="31" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="60.75">
+      <c r="Y17" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -8844,7 +9116,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="60.75">
+    <row r="19" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -8890,7 +9162,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="60.75">
+    <row r="20" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -8936,7 +9208,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:21" ht="60.75">
+    <row r="21" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -8982,7 +9254,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:21" ht="60.75">
+    <row r="22" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -9028,7 +9300,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:21" ht="60.75">
+    <row r="23" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -9074,7 +9346,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:21" ht="60.75">
+    <row r="24" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -9120,7 +9392,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:21" ht="60.75">
+    <row r="25" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -9166,7 +9438,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:21" ht="60.75">
+    <row r="26" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -9212,7 +9484,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:21" ht="60.75">
+    <row r="27" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -9258,7 +9530,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:21" ht="60.75">
+    <row r="28" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -9304,7 +9576,7 @@
       <c r="S28" s="23"/>
       <c r="T28" s="23"/>
     </row>
-    <row r="29" spans="1:21" ht="152.25">
+    <row r="29" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -9352,8 +9624,11 @@
       <c r="U29" s="14" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="137.25">
+      <c r="Y29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -9398,8 +9673,11 @@
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="1:21" ht="152.25">
+      <c r="Y30" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -9444,8 +9722,11 @@
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="1:21" ht="76.5">
+      <c r="Y31" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -9490,8 +9771,11 @@
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="1:20" ht="76.5">
+      <c r="Y32" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -9536,8 +9820,11 @@
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="1:20" ht="76.5">
+      <c r="Y33" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -9582,8 +9869,11 @@
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="1:20" ht="76.5">
+      <c r="Y34" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -9628,8 +9918,11 @@
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="1:20" ht="76.5">
+      <c r="Y35" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -9674,8 +9967,11 @@
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-    </row>
-    <row r="37" spans="1:20" ht="76.5">
+      <c r="Y36" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -9720,8 +10016,11 @@
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="1:20" ht="76.5">
+      <c r="Y37" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -9766,8 +10065,11 @@
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-    </row>
-    <row r="39" spans="1:20" ht="76.5">
+      <c r="Y38" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -9812,8 +10114,11 @@
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="1:20" ht="76.5">
+      <c r="Y39" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -9858,8 +10163,11 @@
       </c>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-    </row>
-    <row r="41" spans="1:20" ht="76.5">
+      <c r="Y40" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -9904,8 +10212,11 @@
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-    </row>
-    <row r="42" spans="1:20" ht="76.5">
+      <c r="Y41" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -9950,8 +10261,11 @@
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="Y42" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="4"/>
       <c r="C43" s="2"/>
@@ -9973,7 +10287,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="4"/>
       <c r="C44" s="2"/>
@@ -9995,7 +10309,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20" ht="89.25">
+    <row r="45" spans="1:25" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
         <v>42</v>
       </c>
@@ -10041,7 +10355,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20" ht="103.5">
+    <row r="46" spans="1:25" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <v>43</v>
       </c>
@@ -10087,7 +10401,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20" ht="45">
+    <row r="47" spans="1:25" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <v>44</v>
       </c>
@@ -10133,7 +10447,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20" ht="118.5">
+    <row r="48" spans="1:25" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A48" s="35">
         <v>45</v>
       </c>
@@ -10179,7 +10493,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20" ht="103.5">
+    <row r="49" spans="1:20" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>46</v>
       </c>
@@ -10225,7 +10539,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20" ht="103.5">
+    <row r="50" spans="1:20" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A50" s="35">
         <v>47</v>
       </c>
@@ -10271,7 +10585,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20" ht="60">
+    <row r="51" spans="1:20" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>48</v>
       </c>
@@ -10317,7 +10631,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20" ht="118.5">
+    <row r="52" spans="1:20" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A52" s="35">
         <v>49</v>
       </c>
@@ -10363,7 +10677,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20" ht="89.25">
+    <row r="53" spans="1:20" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A53" s="35">
         <v>50</v>
       </c>
@@ -10409,7 +10723,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20" ht="60">
+    <row r="54" spans="1:20" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A54" s="35">
         <v>51</v>
       </c>
@@ -10455,7 +10769,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20" ht="118.5">
+    <row r="55" spans="1:20" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A55" s="35">
         <v>52</v>
       </c>
@@ -10501,7 +10815,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20" ht="74.25">
+    <row r="56" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A56" s="35">
         <v>53</v>
       </c>
@@ -10547,7 +10861,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20" ht="89.25">
+    <row r="57" spans="1:20" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>54</v>
       </c>
@@ -10593,7 +10907,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20" ht="60">
+    <row r="58" spans="1:20" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A58" s="35">
         <v>55</v>
       </c>
@@ -10639,7 +10953,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20" ht="118.5">
+    <row r="59" spans="1:20" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
         <v>56</v>
       </c>
@@ -10685,7 +10999,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20" ht="74.25">
+    <row r="60" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A60" s="38">
         <v>57</v>
       </c>
@@ -10731,7 +11045,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20" ht="89.25">
+    <row r="61" spans="1:20" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A61" s="37">
         <v>58</v>
       </c>
@@ -10775,7 +11089,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="89.25">
+    <row r="62" spans="1:20" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
         <v>59</v>
       </c>
@@ -10819,7 +11133,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="103.5">
+    <row r="63" spans="1:20" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A63" s="37">
         <v>60</v>
       </c>
@@ -10863,7 +11177,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="103.5">
+    <row r="64" spans="1:20" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
         <v>61</v>
       </c>
@@ -10907,7 +11221,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="103.5">
+    <row r="65" spans="1:18" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A65" s="37">
         <v>62</v>
       </c>
@@ -10951,7 +11265,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -10971,7 +11285,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -10991,7 +11305,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -11011,7 +11325,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -11031,7 +11345,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="7"/>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -11051,7 +11365,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="7"/>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -11071,7 +11385,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="7"/>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -11091,7 +11405,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="7"/>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -11111,7 +11425,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="7"/>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -11131,7 +11445,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="7"/>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -11151,7 +11465,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="7"/>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -11171,7 +11485,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="7"/>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -11191,7 +11505,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="7"/>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -11211,7 +11525,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="7"/>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -11231,7 +11545,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="7"/>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -11251,7 +11565,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="7"/>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -11271,7 +11585,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="7"/>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -11291,7 +11605,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="7"/>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -11311,7 +11625,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="7"/>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -11331,7 +11645,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="7"/>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -11351,7 +11665,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="7"/>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -11371,7 +11685,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="7"/>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -11391,7 +11705,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="7"/>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -11411,7 +11725,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="7"/>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -11431,7 +11745,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="7"/>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -11451,7 +11765,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="7"/>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -11477,6 +11791,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="419b5155-2791-4d86-a574-06a1f4f06c07">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0817fbec-21b2-4e74-9e6b-27d3c86fd6f5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004864B89DCCB33D4BB7F1F9C2CC2E65DC" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed799eda2172969cb553d296fa21660b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="419b5155-2791-4d86-a574-06a1f4f06c07" xmlns:ns3="0817fbec-21b2-4e74-9e6b-27d3c86fd6f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9840fc2fcb8ed8fd46a8db460cffcdb3" ns2:_="" ns3:_="">
     <xsd:import namespace="419b5155-2791-4d86-a574-06a1f4f06c07"/>
@@ -11705,17 +12030,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="419b5155-2791-4d86-a574-06a1f4f06c07">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0817fbec-21b2-4e74-9e6b-27d3c86fd6f5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11726,13 +12040,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5530A2BC-686A-428C-AA0D-19527B13771C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AA347AC-4817-4786-9530-2E1190EB2E2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="419b5155-2791-4d86-a574-06a1f4f06c07"/>
+    <ds:schemaRef ds:uri="0817fbec-21b2-4e74-9e6b-27d3c86fd6f5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AA347AC-4817-4786-9530-2E1190EB2E2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5530A2BC-686A-428C-AA0D-19527B13771C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="419b5155-2791-4d86-a574-06a1f4f06c07"/>
+    <ds:schemaRef ds:uri="0817fbec-21b2-4e74-9e6b-27d3c86fd6f5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1BE24E2-201E-48CB-B3B9-3B49BCFB220A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1BE24E2-201E-48CB-B3B9-3B49BCFB220A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>